--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N2">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q2">
-        <v>54.59642106432644</v>
+        <v>1.142718621001111</v>
       </c>
       <c r="R2">
-        <v>491.367789578938</v>
+        <v>10.28446758901</v>
       </c>
       <c r="S2">
-        <v>0.01887449854589932</v>
+        <v>0.0004953502980979131</v>
       </c>
       <c r="T2">
-        <v>0.01887449854589932</v>
+        <v>0.0004953502980979131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q3">
-        <v>419.9583782419824</v>
+        <v>9.253365907917889</v>
       </c>
       <c r="R3">
-        <v>3779.625404177842</v>
+        <v>83.28029317126101</v>
       </c>
       <c r="S3">
-        <v>0.145183578794064</v>
+        <v>0.004011186548164018</v>
       </c>
       <c r="T3">
-        <v>0.145183578794064</v>
+        <v>0.004011186548164018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q4">
-        <v>113.3293802217949</v>
+        <v>2.497100373850778</v>
       </c>
       <c r="R4">
-        <v>1019.964421996154</v>
+        <v>22.473903364657</v>
       </c>
       <c r="S4">
-        <v>0.03917903738934995</v>
+        <v>0.001082453188243084</v>
       </c>
       <c r="T4">
-        <v>0.03917903738934995</v>
+        <v>0.001082453188243084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N5">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q5">
-        <v>150.172214790246</v>
+        <v>142.64982061374</v>
       </c>
       <c r="R5">
-        <v>1351.549933112214</v>
+        <v>1283.84838552366</v>
       </c>
       <c r="S5">
-        <v>0.05191595336173062</v>
+        <v>0.06183642225303444</v>
       </c>
       <c r="T5">
-        <v>0.05191595336173062</v>
+        <v>0.06183642225303444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q6">
         <v>1155.132123148014</v>
@@ -818,10 +818,10 @@
         <v>10396.18910833213</v>
       </c>
       <c r="S6">
-        <v>0.3993400877502696</v>
+        <v>0.5007313533077429</v>
       </c>
       <c r="T6">
-        <v>0.3993400877502696</v>
+        <v>0.5007313533077428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>92.512991</v>
       </c>
       <c r="O7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q7">
         <v>311.722338148518</v>
@@ -880,10 +880,10 @@
         <v>2805.501043336662</v>
       </c>
       <c r="S7">
-        <v>0.1077653572049417</v>
+        <v>0.1351266622314863</v>
       </c>
       <c r="T7">
-        <v>0.1077653572049417</v>
+        <v>0.1351266622314862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N8">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q8">
-        <v>63.86547232513734</v>
+        <v>60.66633686742666</v>
       </c>
       <c r="R8">
-        <v>574.789250926236</v>
+        <v>545.99703180684</v>
       </c>
       <c r="S8">
-        <v>0.02207889713345351</v>
+        <v>0.02629788952372291</v>
       </c>
       <c r="T8">
-        <v>0.02207889713345351</v>
+        <v>0.02629788952372291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>342.820243</v>
       </c>
       <c r="O9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q9">
         <v>491.2563801887694</v>
@@ -1004,10 +1004,10 @@
         <v>4421.307421698924</v>
       </c>
       <c r="S9">
-        <v>0.1698319716344045</v>
+        <v>0.2129518062423978</v>
       </c>
       <c r="T9">
-        <v>0.1698319716344045</v>
+        <v>0.2129518062423978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>92.512991</v>
       </c>
       <c r="O10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q10">
         <v>132.5697592457987</v>
@@ -1066,10 +1066,10 @@
         <v>1193.127833212188</v>
       </c>
       <c r="S10">
-        <v>0.04583061818588676</v>
+        <v>0.0574668764071108</v>
       </c>
       <c r="T10">
-        <v>0.04583061818588676</v>
+        <v>0.05746687640711081</v>
       </c>
     </row>
   </sheetData>
